--- a/excel_luke/2_Formulas_Functions/1_Formulas_Intro.xlsx
+++ b/excel_luke/2_Formulas_Functions/1_Formulas_Intro.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liu_michael/Documents/UWaterloo1/Data Analytics/excel_luke/2_Formulas_Functions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F81B5FC7-F41C-964A-AB7F-31BC1D7163D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787732FA-9DA4-D646-9780-5B1C7CF64D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="920" windowWidth="25300" windowHeight="16460" xr2:uid="{8CC555B5-3E06-43B6-9E5B-C0A1D3498DA4}"/>
+    <workbookView xWindow="0" yWindow="540" windowWidth="25300" windowHeight="16460" xr2:uid="{8CC555B5-3E06-43B6-9E5B-C0A1D3498DA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Comparison_Operators" sheetId="3" r:id="rId3"/>
     <sheet name="Cell_Referencing" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -826,7 +825,7 @@
   <dimension ref="B1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:K12"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -835,11 +834,17 @@
     <col min="2" max="2" width="22.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5" style="4" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10" style="4" customWidth="1"/>
-    <col min="7" max="13" width="9" style="4"/>
+    <col min="5" max="5" width="15" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="0.1640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" style="4" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="7.1640625" style="4" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" style="4" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="0.1640625" style="4" hidden="1" customWidth="1"/>
+    <col min="12" max="13" width="9" style="4"/>
     <col min="14" max="14" width="11.33203125" style="4" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="4"/>
+    <col min="15" max="15" width="12.83203125" style="4" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -924,6 +929,22 @@
         <f>(E3=D3)</f>
         <v>0</v>
       </c>
+      <c r="L3" s="4" t="b">
+        <f>(C3&gt;=$C$15)</f>
+        <v>1</v>
+      </c>
+      <c r="M3" s="4" t="b">
+        <f>G3&gt;=$C$16</f>
+        <v>1</v>
+      </c>
+      <c r="N3" s="4">
+        <f>IF(AND(L3,M3), 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="O3" s="4" t="b">
+        <f>(AND(L3,M3))</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
@@ -962,6 +983,22 @@
         <f t="shared" ref="K4:K12" si="5">(E4=D4)</f>
         <v>0</v>
       </c>
+      <c r="L4" s="4" t="b">
+        <f t="shared" ref="L4:L12" si="6">(C4&gt;=$C$15)</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="4" t="b">
+        <f>G4&gt;=$C$16</f>
+        <v>1</v>
+      </c>
+      <c r="N4" s="4">
+        <f t="shared" ref="N4:N12" si="7">IF(AND(L4,M4), 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="4" t="b">
+        <f t="shared" ref="O4:O12" si="8">(AND(L4,M4))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B5" s="8" t="s">
@@ -1000,6 +1037,22 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="L5" s="4" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="4" t="b">
+        <f t="shared" ref="M4:M12" si="9">G5&gt;=$C$16</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O5" s="4" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6" s="8" t="s">
@@ -1038,6 +1091,22 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="L6" s="4" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M6" s="4" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="N6" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O6" s="4" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B7" s="8" t="s">
@@ -1076,6 +1145,22 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="L7" s="4" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="4" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="N7" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="4" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B8" s="8" t="s">
@@ -1114,6 +1199,22 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="L8" s="4" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M8" s="4" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="N8" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O8" s="4" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B9" s="8" t="s">
@@ -1152,6 +1253,22 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="L9" s="4" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M9" s="4" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="N9" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O9" s="4" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
@@ -1190,6 +1307,22 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="L10" s="4" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M10" s="4" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="N10" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O10" s="4" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B11" s="8" t="s">
@@ -1228,6 +1361,22 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="L11" s="4" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="4" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="N11" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="4" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="2:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
@@ -1266,6 +1415,22 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="L12" s="4" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M12" s="4" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="N12" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="O12" s="4" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="2:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="29" t="s">
@@ -1276,13 +1441,17 @@
       <c r="B15" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="26"/>
+      <c r="C15" s="26">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" spans="2:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="28"/>
+      <c r="C16" s="28">
+        <v>90000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
